--- a/IIGJ - Academic Expansion Plan - Manufacturing Formatted.xlsx
+++ b/IIGJ - Academic Expansion Plan - Manufacturing Formatted.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC0B7A1-C780-49F8-9ADE-16139C214AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D21EC6-0C85-40CD-8D01-A2B0552B50B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formated_Budget" sheetId="4" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Quantity.</t>
   </si>
   <si>
-    <t>Cost Per Items</t>
-  </si>
-  <si>
     <t>Projector Screen</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>Cost-to-Company in Lakhs (Equipment according to the capacity requirement of 60 students)</t>
+  </si>
+  <si>
+    <t>Cost Per Items (In Lakhs)</t>
   </si>
 </sst>
 </file>
@@ -528,6 +528,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -540,14 +543,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100F8A17-FE34-4A2D-BBA3-64430DACAE7F}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,38 +893,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="A1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.3">
@@ -950,13 +950,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -972,8 +972,8 @@
         <f>F4*G4</f>
         <v>0.2</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>51</v>
+      <c r="I4" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
@@ -981,13 +981,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1003,17 +1003,17 @@
         <f>F5*G5</f>
         <v>1</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7">
@@ -1030,20 +1030,20 @@
         <f t="shared" ref="H6:H37" si="0">F6*G6</f>
         <v>0.6</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1059,20 +1059,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -1088,20 +1088,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1117,20 +1117,20 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1146,20 +1146,20 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1175,20 +1175,20 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -1204,20 +1204,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -1233,20 +1233,20 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -1262,20 +1262,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -1291,17 +1291,17 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7">
@@ -1318,20 +1318,20 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -1347,20 +1347,20 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -1376,20 +1376,20 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -1405,20 +1405,20 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -1434,20 +1434,20 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -1463,20 +1463,20 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -1492,20 +1492,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -1521,17 +1521,17 @@
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="I23" s="24"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="7">
@@ -1548,17 +1548,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="7">
@@ -1575,8 +1575,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>57</v>
+      <c r="I25" s="27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.3">
@@ -1584,10 +1584,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="7">
@@ -1611,10 +1611,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="7">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.3">
@@ -1638,10 +1638,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="7">
@@ -1658,8 +1658,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>51</v>
+      <c r="I28" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
@@ -1667,10 +1667,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="7">
@@ -1687,17 +1687,17 @@
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="I29" s="27"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="7">
@@ -1714,17 +1714,17 @@
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="I30" s="27"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="7">
@@ -1741,17 +1741,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I31" s="27"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="7">
@@ -1768,20 +1768,20 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E33" s="7">
         <v>1</v>
@@ -1804,13 +1804,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="7">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.3">
@@ -1835,13 +1835,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="7">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>48</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.3">
@@ -1866,13 +1866,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="14">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -1916,12 +1916,12 @@
         <v>2.5</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
